--- a/com.redfin/src/test/resources/TestData.xlsx
+++ b/com.redfin/src/test/resources/TestData.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hafiz\IDEA Project\Team1BootCamp\base\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hafiz\IDEA Project\Team1BootCamp\com.redfin\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4722EE68-90EB-42C0-AF92-D8B589C2F532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4E8F60-FFAB-4CA6-BF86-A8D855A3AFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BF43A26A-CFA6-4A10-8339-8D5564FBA255}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{BF43A26A-CFA6-4A10-8339-8D5564FBA255}"/>
   </bookViews>
   <sheets>
-    <sheet name="Expedia" sheetId="1" r:id="rId1"/>
-    <sheet name="Ebay" sheetId="2" r:id="rId2"/>
-    <sheet name="CBSSports" sheetId="3" r:id="rId3"/>
-    <sheet name="ATT" sheetId="4" r:id="rId4"/>
-    <sheet name="BankOfAmerica" sheetId="5" r:id="rId5"/>
-    <sheet name="BMWUSA" sheetId="6" r:id="rId6"/>
-    <sheet name="Trulia" sheetId="7" r:id="rId7"/>
-    <sheet name="AirBNB" sheetId="8" r:id="rId8"/>
-    <sheet name="OverStock" sheetId="9" r:id="rId9"/>
-    <sheet name="ESPN" sheetId="10" r:id="rId10"/>
-    <sheet name="Verizon" sheetId="11" r:id="rId11"/>
-    <sheet name="Chase" sheetId="12" r:id="rId12"/>
-    <sheet name="Mercedes-Benz" sheetId="13" r:id="rId13"/>
-    <sheet name="Redfin" sheetId="14" r:id="rId14"/>
+    <sheet name="REGAssertionResult" sheetId="20" r:id="rId1"/>
+    <sheet name="REGExpected" sheetId="23" r:id="rId2"/>
+    <sheet name="CalData" sheetId="25" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,22 +36,128 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>A</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Success! Thank you for registering for a CBSSports.com account!</t>
+  </si>
+  <si>
+    <t>Not a valid email address.</t>
+  </si>
+  <si>
+    <t>Must be 6 or more characters.</t>
+  </si>
+  <si>
+    <t>Passwords don't match.</t>
+  </si>
+  <si>
+    <t>Duplicate Email [sample73888@gmail.com]</t>
+  </si>
+  <si>
+    <t>Please check your password format.</t>
+  </si>
+  <si>
+    <t>You must accept the terms of service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not a valid email address. Must be 6 or more characters. Passwords don't match. </t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Your email address is already registered with eBay. Need help with your password</t>
+  </si>
+  <si>
+    <t>Email address is invalid. Please enter a valid email address.</t>
+  </si>
+  <si>
+    <t>At least 6 characters.</t>
+  </si>
+  <si>
+    <t>A number or symbol.</t>
+  </si>
+  <si>
+    <t>At least 1 letter.</t>
+  </si>
+  <si>
+    <t>Mortgage Location</t>
+  </si>
+  <si>
+    <t>Mortgage Price</t>
+  </si>
+  <si>
+    <t>Queens</t>
+  </si>
+  <si>
+    <t>550000</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Down Payment</t>
+  </si>
+  <si>
+    <t>125000</t>
+  </si>
+  <si>
+    <t>740-759</t>
+  </si>
+  <si>
+    <t>NationalGuard</t>
+  </si>
+  <si>
+    <t>20 Year Fixed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,8 +180,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,195 +513,204 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F16D271-5906-41EE-853E-85EA245B6942}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C6DB0C-125D-41E6-B672-3FA74959CDA8}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81D9F3F-CCCE-4DC8-AD6F-1F59647910C7}">
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="86" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4F54D1-3917-41AA-9115-54DFB60054C4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A4ED8F-84C7-4351-B184-022F160E827E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD1F144-5BE0-43B5-8C2F-943F03339C79}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C25186B-8AE5-4703-8BDB-6D9F1A2F53C3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9751B09C-FE73-4F13-A91B-81E55B55AAEA}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553B078C-DE4C-4C36-8FF2-6E7710C38CAF}">
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="83.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A517B4-AB0A-4E50-8324-F3955FA294DA}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49513637-0BFE-4EB2-B9A4-63405C8675C1}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0464987E-CA86-496F-AFAF-2580C40BA720}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB124C4-9CEE-457F-95C0-47C63DA908AF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5674FF68-7C81-4A9C-99FE-C7E070DBCFFA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC436034-E141-4F6F-A259-658744C38455}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F06E338-1C0F-45E0-B136-3FC6897D7CEC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A9241A-80CA-47A8-B8A7-CE843E51095C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>